--- a/data/trans_dic/P55_4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_4-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros)</t>
+          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros) (tasa de respuesta: 97,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>82,58%</t>
+          <t>82,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>69,19%</t>
+          <t>73,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>76,9%</t>
+          <t>77,95%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>62,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>80,47%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>67,45%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>67,83; 91,32</t>
+          <t>65,47; 94,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,91; 79,48</t>
+          <t>52,87; 86,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>68,48; 84,39</t>
+          <t>62,16; 88,3</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>45,52; 76,14</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>69,58; 88,24</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>54,09; 77,18</t>
         </is>
       </c>
     </row>
@@ -606,17 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>63,1%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>66,03%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,53%</t>
+          <t>70,09%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>65,06%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>57,74%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>79,05%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,16; 80,29</t>
+          <t>22,31; 69,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,46; 76,26</t>
+          <t>74,65; 97,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,49; 73,81</t>
+          <t>56,52; 80,91</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50,68; 77,74</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>40,09; 71,67</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>68,46; 88,28</t>
         </is>
       </c>
     </row>
@@ -656,17 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>67,84%</t>
+          <t>74,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>80,92%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74,85%</t>
+          <t>84,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>75,51%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>80,32%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>74,84%</t>
         </is>
       </c>
     </row>
@@ -679,17 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,49; 78,65</t>
+          <t>59,39; 85,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,94; 86,76</t>
+          <t>60,35; 85,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,96; 81,08</t>
+          <t>75,69; 89,95</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>65,88; 83,2</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>71,96; 86,39</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>66,92; 81,14</t>
         </is>
       </c>
     </row>
@@ -706,17 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>85,5%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>68,31%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>76,45%</t>
+          <t>70,7%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>63,65%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>79,67%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>75,95%</t>
         </is>
       </c>
     </row>
@@ -729,17 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,5; 90,84</t>
+          <t>80,88; 94,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,6; 75,49</t>
+          <t>80,34; 94,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,25; 81,07</t>
+          <t>60,76; 79,3</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>53,76; 73,22</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>73,04; 85,16</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>69,08; 81,37</t>
         </is>
       </c>
     </row>
@@ -756,17 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>72,67%</t>
+          <t>77,07%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>66,08%</t>
+          <t>69,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>69,57%</t>
+          <t>59,63%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>53,91%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>69,72%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>62,38%</t>
         </is>
       </c>
     </row>
@@ -779,17 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>62,06; 80,52</t>
+          <t>65,31; 85,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>55,16; 75,04</t>
+          <t>57,33; 80,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>62,41; 75,98</t>
+          <t>44,4; 72,36</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>39,19; 67,81</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>60,16; 77,84</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53,2; 71,64</t>
         </is>
       </c>
     </row>
@@ -806,17 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>76,31%</t>
+          <t>84,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>54,57%</t>
+          <t>74,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>63,2%</t>
+          <t>68,48%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>43,81%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>75,82%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>56,25%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>65,68; 85,07</t>
+          <t>70,79; 92,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,92; 70,63</t>
+          <t>56,25; 87,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,66; 73,17</t>
+          <t>49,26; 81,59</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>26,48; 63,48</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>63,65; 84,97</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>40,57; 68,08</t>
         </is>
       </c>
     </row>
@@ -856,17 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>74,92%</t>
+          <t>75,04%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>71,4%</t>
+          <t>73,47%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>61,6%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>74,24%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>70,35%</t>
         </is>
       </c>
     </row>
@@ -879,25 +1120,50 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>68,78; 79,49</t>
+          <t>65,68; 81,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>61,3; 72,39</t>
+          <t>74,34; 84,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>66,63; 74,69</t>
+          <t>68,04; 78,0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>55,92; 67,37</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>68,86; 77,9</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>66,12; 74,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -906,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros) (tasa de respuesta: 97,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>105592</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>98372</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>91275</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>90214</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>196867</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>188586</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>83514; 120259</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>70908; 116598</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>72795; 103401</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>66229; 110785</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>170246; 215887</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>151250; 215816</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>71943</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>201897</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>88532</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>101845</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>160475</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>303742</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>33825; 105245</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>169974; 221114</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>71391; 102201</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>79337; 121695</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>111442; 199220</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>263031; 339204</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>95547</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>131032</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>167140</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>179337</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>262687</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>310370</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>76061; 109749</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>106957; 150812</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>150613; 178986</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>156473; 197611</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>235359; 282539</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>277559; 336507</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>139015</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>175547</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>114918</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>134226</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>253933</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>309772</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>126336; 147349</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>158246; 186886</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>98755; 128895</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>113371; 154390</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>232825; 271451</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>281738; 331855</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>93757</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>106655</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>52923</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>72386</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>146679</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>179040</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>79448; 104604</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>87556; 122662</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>39403; 64219</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>52619; 91043</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>126574; 163771</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>152687; 205616</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>74100</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>93542</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>70930</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>81311</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>145030</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>174854</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>62083; 81407</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>70437; 110138</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>51021; 84511</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>49155; 117825</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>121744; 162530</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>126113; 211609</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>533.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>579954</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>807045</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>585718</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>659318</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1165672</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1466363</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>507567; 631011</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>753821; 857604</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>542421; 621876</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>598488; 721060</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1081098; 1223156</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1378041; 1551459</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>